--- a/admin/src/dist/file/fault_template.xlsx
+++ b/admin/src/dist/file/fault_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -69,18 +69,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>机器型号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>机器名称</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>T1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>太子T单头意式半自动咖啡机</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -90,6 +82,54 @@
   </si>
   <si>
     <t>2020-12-24 16:39:02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>番禺区</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>省(可为空)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>市(可为空)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>区(可为空)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址(可为空)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名(可为空)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器sn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK012004701</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -546,28 +586,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="3" width="15.58203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.58203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="6" max="9" width="14.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.58203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" customHeight="1">
+    <row r="1" spans="1:14" ht="28" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -579,72 +622,107 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17" customHeight="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="coffeedz@163.com"/>
+    <hyperlink ref="K3" r:id="rId1" display="coffeedz@163.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
